--- a/databases/xlsx/import 2021.06 июнь/import 2021.06 июнь.xlsx
+++ b/databases/xlsx/import 2021.06 июнь/import 2021.06 июнь.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="510">
   <si>
     <t xml:space="preserve">ООО Будь здоров (Ригла)</t>
   </si>
@@ -776,7 +776,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Шпилька</t>
+    <t xml:space="preserve">Шпилька</t>
   </si>
   <si>
     <r>
@@ -1455,27 +1455,12 @@
     <t xml:space="preserve">Баяндин Д.А.</t>
   </si>
   <si>
+    <t xml:space="preserve">111111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Вафли</t>
   </si>
   <si>
-    <t xml:space="preserve">Полозова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нет счетчика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Желейные конфеты (возле туалетов развлекаловки)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вентиляция 2 корпуса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"ЯБЛОКО"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Умеров Р.Р. (Мир развлечений XXI век ООО)</t>
   </si>
   <si>
@@ -1491,27 +1476,24 @@
     <t xml:space="preserve">сч. В щите ЩСТ-6, где лазермакс</t>
   </si>
   <si>
+    <t xml:space="preserve">Замок на развлекаловке</t>
+  </si>
+  <si>
     <t xml:space="preserve">15684</t>
   </si>
   <si>
-    <t xml:space="preserve">Замок на развлекаловке</t>
-  </si>
-  <si>
     <t xml:space="preserve">Меметов ИП</t>
   </si>
   <si>
     <t xml:space="preserve">01507</t>
   </si>
   <si>
-    <t xml:space="preserve">Бывший Олтекс ООО</t>
+    <t xml:space="preserve">Экран</t>
   </si>
   <si>
     <t xml:space="preserve">17347</t>
   </si>
   <si>
-    <t xml:space="preserve">Экран</t>
-  </si>
-  <si>
     <t xml:space="preserve">Смирнова (вместо смазливки) ИП</t>
   </si>
   <si>
@@ -1563,12 +1545,12 @@
     <t xml:space="preserve">Подиум(съехал)</t>
   </si>
   <si>
+    <t xml:space="preserve">Мебель ротанг</t>
+  </si>
+  <si>
     <t xml:space="preserve">08904</t>
   </si>
   <si>
-    <t xml:space="preserve">Мебель ротанг</t>
-  </si>
-  <si>
     <t xml:space="preserve">Мартынюк ИП</t>
   </si>
   <si>
@@ -1797,16 +1779,596 @@
     <t xml:space="preserve">Умами</t>
   </si>
   <si>
+    <t xml:space="preserve">Щит в э/щ на цокольный этаж</t>
+  </si>
+  <si>
     <t xml:space="preserve">10060</t>
   </si>
   <si>
-    <t xml:space="preserve">Щит в э/щ на цокольный этаж</t>
-  </si>
-  <si>
     <t xml:space="preserve">68364</t>
   </si>
   <si>
     <t xml:space="preserve">Умами островок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авагян (ателье) № 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ателье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попкорн № 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попкорн(от кинотеатра)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мельничук  П.Ф.  № 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мусатов А.В. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Rich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горелик А.И.  №105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОРСКОЙ КЛУБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чувахин Сергей № 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ильина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musthave</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Шведова </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">А.В.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">№108</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вессель ИП (посуда)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gipfel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Любченко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRA NOVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соскова О.Ю №116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Борисенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ларионов В.В. ИП  №118 мас. кресла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casada кресла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смей Н.А.  №119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гребенюк  №120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Орехова №121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeanstop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хомутова №122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моисейкин П.А.  1к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сев.подарок.ру (островок)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Синичкин Р.В. №114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баскакова  (парикмахерская)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platinum -парикмахерская на 2-м этаже</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чупахина И.А. 4к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чайная Сказка (островок) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алферьева ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инлавка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрченко ИП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">61146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нижметдинов А. ИП №124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мишутка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карасева №115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Котофей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Камаев С.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Morgan островок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баринов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аверин ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тянучки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нежмединов А.С. переход к.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крокодил, напротив Renzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гладышева 3к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мир японских ножей(островок)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нежмединов А.С.  переход к.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крокодил, напротив Мишутки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кравченко М.В. №901,902 (2 чел.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARDEROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грохольский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Котелевская И.П. №904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEDAMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чернышева ( был Леонтьев С.Н.) №905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAMBINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воронин ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тигрюля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лопашинская Л.А.№907 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODA CRISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нина О Торговый дом №908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN CLIFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соскова О.Ю. №909 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONDO 1сч.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONDO 2сч.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Левина Е.Е. №911 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">64265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERMAN SHOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Синичкин  №912 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC FASHION CLUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уханева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalamata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ямагучи Крым ООО №914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЯМАГУЧЧИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Титова ИП (яхтинг)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popilov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шинкарева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Империя меха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрова Л.В. №917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потапова И.В. №918 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мусихина А.№919 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мухина Д.И. №920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дефиле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семикина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Femme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алешина Е.А. №923,924,925 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTON (1 счетчик)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алешина Е.А.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTON (2 счетик)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Бондарь ИП </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">( был Чубаров )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">54561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Антонова Е.Ф.№927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слипченко Е.И. №928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAGGON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нечипоренко Д.К. (цветы)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цветочный магазин на улице перед входом в корп.№9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Викулова С.Г./Савкина Н.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трюфель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимирова С.В. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ателье возле бутика GARDEROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самойлова ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страна Гулливера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Столяр К.Ю. (островок кофе)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">островок кофе (возле CORNERY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ГАНАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брендсмарт 2-й этаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕГА ШОП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGA SHOP (2-й этаж,сч. В щитовой)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марченко Ю.В. делить на2 с Талиевым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">справа от входа (ремонт часов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лазарева ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коффишка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саруханова Н.С ИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">корп.№1, Зоомагазин</t>
   </si>
 </sst>
 </file>
@@ -1819,14 +2381,15 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1848,6 +2411,12 @@
       <name val="Arial Cyr"/>
       <family val="0"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1934,13 +2503,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF7030A0"/>
       <name val="Arial Cyr"/>
@@ -1986,51 +2548,10 @@
     </font>
     <font>
       <sz val="20"/>
+      <color rgb="FF7030A0"/>
       <name val="Arial Cyr"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="20"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="20"/>
-      <name val="Arial Cyr"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial Cyr"/>
-      <family val="0"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2038,6 +2559,13 @@
       <color rgb="FF7030A0"/>
       <name val="Arial Cyr"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -2056,12 +2584,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2105,23 +2633,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2155,96 +2676,192 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="77">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2252,114 +2869,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2372,151 +2881,107 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2554,7 +3019,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -2581,7 +3046,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2598,2957 +3063,4251 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F198" activeCellId="0" sqref="F198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="110.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="138.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="3" t="n">
         <v>28905</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="3" t="n">
         <v>30048</v>
       </c>
-      <c r="D1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>70998</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>71095</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>10255</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>10362</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <v>25468</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>26054</v>
       </c>
-      <c r="D4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>90867</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>93204</v>
       </c>
-      <c r="D5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>223468</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>227255</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>36225</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>37166</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>27039</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>27196</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="n">
+      <c r="D8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="n">
         <v>8383</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="12" t="n">
         <v>65928.906</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="12" t="n">
         <v>66414.515</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>3528</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>5536</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>34132</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>34644</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="G11" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="16" t="n">
+      <c r="A12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="18" t="n">
         <v>37962.5</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="18" t="n">
         <v>38208.7</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="19" t="n">
         <v>60</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="G12" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="20" t="n">
+      <c r="B13" s="22" t="n">
         <v>6093</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="22" t="n">
         <v>9399</v>
       </c>
-      <c r="D13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="23" t="n">
+      <c r="B14" s="25" t="n">
         <v>10335</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="25" t="n">
         <v>10984</v>
       </c>
-      <c r="D14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="23" t="n">
+      <c r="B15" s="25" t="n">
         <v>6413</v>
       </c>
-      <c r="C15" s="23" t="n">
+      <c r="C15" s="25" t="n">
         <v>7019</v>
       </c>
-      <c r="D15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="18" t="n">
+      <c r="D15" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20" t="n">
         <v>70373</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="23" t="n">
+      <c r="B16" s="25" t="n">
         <v>12114</v>
       </c>
-      <c r="C16" s="23" t="n">
+      <c r="C16" s="25" t="n">
         <v>12930</v>
       </c>
-      <c r="D16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="18" t="n">
+      <c r="D16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20" t="n">
         <v>99648</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="23" t="n">
+      <c r="B17" s="25" t="n">
         <v>37355</v>
       </c>
-      <c r="C17" s="23" t="n">
+      <c r="C17" s="25" t="n">
         <v>38027</v>
       </c>
-      <c r="D17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="18" t="n">
+      <c r="D17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20" t="n">
         <v>98600</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="23" t="n">
+      <c r="B18" s="25" t="n">
         <v>88347</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="25" t="n">
         <v>88770</v>
       </c>
-      <c r="D18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="18" t="n">
+      <c r="D18" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20" t="n">
         <v>98517</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="23" t="n">
+      <c r="B19" s="25" t="n">
         <v>48929</v>
       </c>
-      <c r="C19" s="23" t="n">
+      <c r="C19" s="25" t="n">
         <v>49695</v>
       </c>
-      <c r="D19" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18" t="n">
+      <c r="D19" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="n">
         <v>98627</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="23" t="n">
+      <c r="B20" s="25" t="n">
         <v>74987</v>
       </c>
-      <c r="C20" s="23" t="n">
+      <c r="C20" s="25" t="n">
         <v>75230</v>
       </c>
-      <c r="D20" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="18" t="n">
+      <c r="D20" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20" t="n">
         <v>98556</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="23" t="n">
+      <c r="B21" s="25" t="n">
         <v>73004</v>
       </c>
-      <c r="C21" s="23" t="n">
+      <c r="C21" s="25" t="n">
         <v>73368</v>
       </c>
-      <c r="D21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="18" t="n">
+      <c r="D21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="n">
         <v>98503</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="25" t="n">
         <v>85925</v>
       </c>
-      <c r="C22" s="23" t="n">
+      <c r="C22" s="25" t="n">
         <v>86649</v>
       </c>
-      <c r="D22" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="18" t="n">
+      <c r="D22" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20" t="n">
         <v>98630</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="17" t="s">
         <v>54</v>
       </c>
+      <c r="G22" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="23" t="n">
+      <c r="A23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="25" t="n">
         <v>78331</v>
       </c>
-      <c r="C23" s="23" t="n">
+      <c r="C23" s="25" t="n">
         <v>78977</v>
       </c>
-      <c r="D23" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="G23" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="25" t="n">
         <v>19403</v>
       </c>
-      <c r="C24" s="23" t="n">
+      <c r="C24" s="25" t="n">
         <v>19403</v>
       </c>
-      <c r="D24" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="18" t="n">
+      <c r="D24" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20" t="n">
         <v>8726</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="25" t="n">
         <v>137925</v>
       </c>
-      <c r="C25" s="23" t="n">
+      <c r="C25" s="25" t="n">
         <v>139337</v>
       </c>
-      <c r="D25" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18" t="n">
+      <c r="D25" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20" t="n">
         <v>542003</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="25" t="n">
         <v>45015</v>
       </c>
-      <c r="C26" s="23" t="n">
+      <c r="C26" s="25" t="n">
         <v>45346</v>
       </c>
-      <c r="D26" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="18" t="n">
+      <c r="D26" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20" t="n">
         <v>100986</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="25" t="n">
         <v>98106</v>
       </c>
-      <c r="C27" s="23" t="n">
+      <c r="C27" s="25" t="n">
         <v>98646</v>
       </c>
-      <c r="D27" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="18" t="n">
+      <c r="D27" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20" t="n">
         <v>70386</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="25" t="n">
         <v>58214</v>
       </c>
-      <c r="C28" s="23" t="n">
+      <c r="C28" s="25" t="n">
         <v>58665</v>
       </c>
-      <c r="D28" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18" t="n">
+      <c r="D28" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20" t="n">
         <v>64591</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="25" t="n">
         <v>44226</v>
       </c>
-      <c r="C29" s="23" t="n">
+      <c r="C29" s="25" t="n">
         <v>46050</v>
       </c>
-      <c r="D29" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="18" t="n">
+      <c r="D29" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="20" t="n">
         <v>87125</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="25" t="n">
         <v>77966</v>
       </c>
-      <c r="C30" s="23" t="n">
+      <c r="C30" s="25" t="n">
         <v>78935</v>
       </c>
-      <c r="D30" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="18" t="n">
+      <c r="D30" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20" t="n">
         <v>87202</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="25" t="n">
         <v>33736</v>
       </c>
-      <c r="C31" s="23" t="n">
+      <c r="C31" s="25" t="n">
         <v>33865</v>
       </c>
-      <c r="D31" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="18" t="n">
+      <c r="D31" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="20" t="n">
         <v>99475</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="23" t="n">
+      <c r="B32" s="25" t="n">
         <v>57948</v>
       </c>
-      <c r="C32" s="23" t="n">
+      <c r="C32" s="25" t="n">
         <v>58238</v>
       </c>
-      <c r="D32" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="18" t="n">
+      <c r="D32" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20" t="n">
         <v>100985</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G32" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="23" t="n">
+      <c r="B33" s="25" t="n">
         <v>33270</v>
       </c>
-      <c r="C33" s="23" t="n">
+      <c r="C33" s="25" t="n">
         <v>33404</v>
       </c>
-      <c r="D33" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="18" t="n">
+      <c r="D33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20" t="n">
         <v>100839</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="17" t="s">
         <v>74</v>
       </c>
+      <c r="G33" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="23" t="n">
+      <c r="B34" s="25" t="n">
         <v>23879</v>
       </c>
-      <c r="C34" s="23" t="n">
+      <c r="C34" s="25" t="n">
         <v>24018</v>
       </c>
-      <c r="D34" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="18" t="n">
+      <c r="D34" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="20" t="n">
         <v>100976</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="23" t="n">
+      <c r="B35" s="25" t="n">
         <v>41693</v>
       </c>
-      <c r="C35" s="23" t="n">
+      <c r="C35" s="25" t="n">
         <v>41908</v>
       </c>
-      <c r="D35" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="18" t="n">
+      <c r="D35" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20" t="n">
         <v>99491</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="17" t="s">
         <v>78</v>
       </c>
+      <c r="G35" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="23" t="n">
+      <c r="B36" s="25" t="n">
         <v>33667</v>
       </c>
-      <c r="C36" s="23" t="n">
+      <c r="C36" s="25" t="n">
         <v>33875</v>
       </c>
-      <c r="D36" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="18" t="n">
+      <c r="D36" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="20" t="n">
         <v>99470</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="23" t="n">
+      <c r="B37" s="25" t="n">
         <v>31790</v>
       </c>
-      <c r="C37" s="23" t="n">
+      <c r="C37" s="25" t="n">
         <v>31988</v>
       </c>
-      <c r="D37" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="18" t="n">
+      <c r="D37" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20" t="n">
         <v>99541</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="23" t="n">
+      <c r="B38" s="25" t="n">
         <v>30425</v>
       </c>
-      <c r="C38" s="23" t="n">
+      <c r="C38" s="25" t="n">
         <v>30575</v>
       </c>
-      <c r="D38" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="18" t="n">
+      <c r="D38" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="20" t="n">
         <v>99680</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="23" t="n">
+      <c r="B39" s="25" t="n">
         <v>66211</v>
       </c>
-      <c r="C39" s="23" t="n">
+      <c r="C39" s="25" t="n">
         <v>66541</v>
       </c>
-      <c r="D39" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="18" t="n">
+      <c r="D39" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="20" t="n">
         <v>100829</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="23" t="n">
+      <c r="B40" s="25" t="n">
         <v>59360</v>
       </c>
-      <c r="C40" s="23" t="n">
+      <c r="C40" s="25" t="n">
         <v>60067</v>
       </c>
-      <c r="D40" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="18" t="n">
+      <c r="D40" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <v>100980</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="23" t="n">
+      <c r="B41" s="25" t="n">
         <v>46381</v>
       </c>
-      <c r="C41" s="23" t="n">
+      <c r="C41" s="25" t="n">
         <v>46892</v>
       </c>
-      <c r="D41" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="D41" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="23" t="n">
+      <c r="B42" s="25" t="n">
         <v>8102</v>
       </c>
-      <c r="C42" s="23" t="n">
+      <c r="C42" s="25" t="n">
         <v>8449</v>
       </c>
-      <c r="D42" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="18" t="s">
+      <c r="D42" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="23" t="n">
+      <c r="B43" s="25" t="n">
         <v>68610</v>
       </c>
-      <c r="C43" s="23" t="n">
+      <c r="C43" s="25" t="n">
         <v>68751</v>
       </c>
-      <c r="D43" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="18" t="n">
+      <c r="D43" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <v>492735</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="23" t="n">
+      <c r="B44" s="25" t="n">
         <v>3461</v>
       </c>
-      <c r="C44" s="23" t="n">
+      <c r="C44" s="25" t="n">
         <v>3789</v>
       </c>
-      <c r="D44" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="18" t="n">
+      <c r="D44" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="20" t="n">
         <v>77006572</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="23" t="n">
+      <c r="B45" s="25" t="n">
         <v>87889</v>
       </c>
-      <c r="C45" s="23" t="n">
+      <c r="C45" s="25" t="n">
         <v>88320</v>
       </c>
-      <c r="D45" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="18" t="n">
+      <c r="D45" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="20" t="n">
         <v>503440</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="23" t="n">
+      <c r="B46" s="25" t="n">
         <v>54506</v>
       </c>
-      <c r="C46" s="23" t="n">
+      <c r="C46" s="25" t="n">
         <v>54708</v>
       </c>
-      <c r="D46" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="18" t="n">
+      <c r="D46" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <v>492892</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="32" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="23" t="n">
+      <c r="B47" s="25" t="n">
         <v>36510</v>
       </c>
-      <c r="C47" s="23" t="n">
+      <c r="C47" s="25" t="n">
         <v>36691</v>
       </c>
-      <c r="D47" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="18" t="n">
+      <c r="D47" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="20" t="n">
         <v>503014</v>
       </c>
-      <c r="F47" s="30"/>
+      <c r="F47" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="20" t="n">
+      <c r="B48" s="22" t="n">
         <v>35648</v>
       </c>
-      <c r="C48" s="20" t="n">
+      <c r="C48" s="22" t="n">
         <v>35917</v>
       </c>
-      <c r="D48" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="18" t="n">
+      <c r="D48" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="20" t="n">
         <v>88031383</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="23" t="n">
+      <c r="B49" s="25" t="n">
         <v>29084</v>
       </c>
-      <c r="C49" s="23" t="n">
+      <c r="C49" s="25" t="n">
         <v>29241</v>
       </c>
-      <c r="D49" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="18" t="n">
+      <c r="D49" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="20" t="n">
         <v>16596</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="23" t="n">
+      <c r="B50" s="25" t="n">
         <v>42090</v>
       </c>
-      <c r="C50" s="23" t="n">
+      <c r="C50" s="25" t="n">
         <v>42279</v>
       </c>
-      <c r="D50" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="18" t="n">
+      <c r="D50" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="20" t="n">
         <v>88031436</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="31" t="n">
+      <c r="B51" s="33" t="n">
         <v>61210</v>
       </c>
-      <c r="C51" s="31" t="n">
+      <c r="C51" s="33" t="n">
         <v>62029</v>
       </c>
-      <c r="D51" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="18" t="n">
+      <c r="D51" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="20" t="n">
         <v>88031413</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="32" t="n">
+      <c r="B52" s="34" t="n">
         <v>35671</v>
       </c>
-      <c r="C52" s="32" t="n">
+      <c r="C52" s="34" t="n">
         <v>37224</v>
       </c>
-      <c r="D52" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="23" t="n">
+      <c r="B53" s="25" t="n">
         <v>38589</v>
       </c>
-      <c r="C53" s="23" t="n">
+      <c r="C53" s="25" t="n">
         <v>38589</v>
       </c>
-      <c r="D53" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="18" t="n">
+      <c r="D53" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="20" t="n">
         <v>4369</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="23" t="n">
+      <c r="B54" s="25" t="n">
         <v>36462</v>
       </c>
-      <c r="C54" s="23" t="n">
+      <c r="C54" s="25" t="n">
         <v>36462</v>
       </c>
-      <c r="D54" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="18" t="n">
+      <c r="D54" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="20" t="n">
         <v>1400</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="23" t="n">
+      <c r="B55" s="25" t="n">
         <v>43342</v>
       </c>
-      <c r="C55" s="23" t="n">
+      <c r="C55" s="25" t="n">
         <v>43342</v>
       </c>
-      <c r="D55" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="18" t="n">
+      <c r="D55" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="20" t="n">
         <v>2328</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="23" t="n">
+      <c r="B56" s="25" t="n">
         <v>77142</v>
       </c>
-      <c r="C56" s="23" t="n">
+      <c r="C56" s="25" t="n">
         <v>77142</v>
       </c>
-      <c r="D56" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="18" t="n">
+      <c r="D56" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="20" t="n">
         <v>6910</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="23" t="n">
+      <c r="B57" s="25" t="n">
         <v>8401</v>
       </c>
-      <c r="C57" s="23" t="n">
+      <c r="C57" s="25" t="n">
         <v>8514</v>
       </c>
-      <c r="D57" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="18" t="s">
+      <c r="D57" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="23" t="n">
+      <c r="B58" s="25" t="n">
         <v>24797</v>
       </c>
-      <c r="C58" s="23" t="n">
+      <c r="C58" s="25" t="n">
         <v>25281</v>
       </c>
-      <c r="D58" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="18" t="s">
+      <c r="D58" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="23" t="n">
+      <c r="B59" s="25" t="n">
         <v>7086</v>
       </c>
-      <c r="C59" s="23" t="n">
+      <c r="C59" s="25" t="n">
         <v>7086</v>
       </c>
-      <c r="D59" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="18" t="s">
+      <c r="D59" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="23" t="n">
+      <c r="B60" s="25" t="n">
         <v>38232</v>
       </c>
-      <c r="C60" s="23" t="n">
+      <c r="C60" s="25" t="n">
         <v>38387</v>
       </c>
-      <c r="D60" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="18" t="s">
+      <c r="D60" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="23" t="n">
+      <c r="B61" s="25" t="n">
         <v>4676</v>
       </c>
-      <c r="C61" s="23" t="n">
+      <c r="C61" s="25" t="n">
         <v>4854</v>
       </c>
-      <c r="D61" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="18" t="s">
+      <c r="D61" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="23" t="n">
+      <c r="B62" s="25" t="n">
         <v>22364</v>
       </c>
-      <c r="C62" s="23" t="n">
+      <c r="C62" s="25" t="n">
         <v>22423</v>
       </c>
-      <c r="D62" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="18" t="n">
+      <c r="D62" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="20" t="n">
         <v>530958</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="17" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="23" t="n">
+      <c r="B63" s="25" t="n">
         <v>18968</v>
       </c>
-      <c r="C63" s="23" t="n">
+      <c r="C63" s="25" t="n">
         <v>19214</v>
       </c>
-      <c r="D63" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="18" t="n">
+      <c r="D63" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="20" t="n">
         <v>607637</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="23" t="n">
+      <c r="B64" s="25" t="n">
         <v>14270</v>
       </c>
-      <c r="C64" s="23" t="n">
+      <c r="C64" s="25" t="n">
         <v>14491</v>
       </c>
-      <c r="D64" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="18" t="n">
+      <c r="D64" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="20" t="n">
         <v>56067</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="34" t="n">
+      <c r="B65" s="36" t="n">
         <v>35645.7</v>
       </c>
-      <c r="C65" s="34" t="n">
+      <c r="C65" s="36" t="n">
         <v>35868.2</v>
       </c>
-      <c r="D65" s="24" t="n">
+      <c r="D65" s="26" t="n">
         <v>40</v>
       </c>
-      <c r="E65" s="18" t="n">
+      <c r="E65" s="20" t="n">
         <v>1535390</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="35" t="n">
+      <c r="B66" s="37" t="n">
         <v>1193.7</v>
       </c>
-      <c r="C66" s="35" t="n">
+      <c r="C66" s="37" t="n">
         <v>1408.41</v>
       </c>
-      <c r="D66" s="35" t="n">
+      <c r="D66" s="37" t="n">
         <v>50</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="36" t="n">
+      <c r="B67" s="38" t="n">
         <v>821527</v>
       </c>
-      <c r="C67" s="36" t="n">
+      <c r="C67" s="38" t="n">
         <v>821928</v>
       </c>
-      <c r="D67" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="18" t="n">
+      <c r="D67" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="20" t="n">
         <v>399479</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="37"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="15"/>
+      <c r="A68" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="39" t="n">
+        <v>52711</v>
+      </c>
+      <c r="C68" s="39" t="n">
+        <v>53229</v>
+      </c>
+      <c r="D68" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="38"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="15"/>
+      <c r="A69" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="25" t="n">
+        <v>74072</v>
+      </c>
+      <c r="C69" s="25" t="n">
+        <v>75069</v>
+      </c>
+      <c r="D69" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="15"/>
+      <c r="A70" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="25" t="n">
+        <v>24612</v>
+      </c>
+      <c r="C70" s="25" t="n">
+        <v>24907</v>
+      </c>
+      <c r="D70" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="15"/>
-    </row>
-    <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="15"/>
+      <c r="A71" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="25" t="n">
+        <v>3390</v>
+      </c>
+      <c r="C71" s="25" t="n">
+        <v>4780</v>
+      </c>
+      <c r="D71" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="42" t="n">
+        <v>27083.3</v>
+      </c>
+      <c r="C72" s="42" t="n">
+        <v>27409.8</v>
+      </c>
+      <c r="D72" s="25" t="n">
+        <v>30</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="15"/>
+      <c r="A73" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="25" t="n">
+        <v>97210</v>
+      </c>
+      <c r="C73" s="25" t="n">
+        <v>101204</v>
+      </c>
+      <c r="D73" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="15"/>
+      <c r="A74" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="25" t="n">
+        <v>87377</v>
+      </c>
+      <c r="C74" s="25" t="n">
+        <v>89022</v>
+      </c>
+      <c r="D74" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="22"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="15"/>
+      <c r="A75" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="25" t="n">
+        <v>97508</v>
+      </c>
+      <c r="C75" s="25" t="n">
+        <v>99989</v>
+      </c>
+      <c r="D75" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="22"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="15"/>
+      <c r="A76" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="34" t="n">
+        <v>23470</v>
+      </c>
+      <c r="C76" s="34" t="n">
+        <v>23792</v>
+      </c>
+      <c r="D76" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="40"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="15"/>
-    </row>
-    <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B78" s="41" t="n">
-        <v>52711</v>
-      </c>
-      <c r="C78" s="41" t="n">
-        <v>53229</v>
-      </c>
-      <c r="D78" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>149</v>
+      <c r="A77" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="34" t="n">
+        <v>5838</v>
+      </c>
+      <c r="C77" s="34" t="n">
+        <v>6104</v>
+      </c>
+      <c r="D77" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="34" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C78" s="34" t="n">
+        <v>14523</v>
+      </c>
+      <c r="D78" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" s="25" t="n">
+        <v>80782</v>
+      </c>
+      <c r="C79" s="25" t="n">
+        <v>81894</v>
+      </c>
+      <c r="D79" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="39" t="n">
+        <v>59389</v>
+      </c>
+      <c r="C80" s="39" t="n">
+        <v>60370</v>
+      </c>
+      <c r="D80" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" s="25" t="n">
+        <v>28098</v>
+      </c>
+      <c r="C81" s="25" t="n">
+        <v>28345</v>
+      </c>
+      <c r="D81" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="25" t="n">
+        <v>84250</v>
+      </c>
+      <c r="C82" s="25" t="n">
+        <v>85282</v>
+      </c>
+      <c r="D82" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="25" t="n">
+        <v>115805</v>
+      </c>
+      <c r="C83" s="25" t="n">
+        <v>117007</v>
+      </c>
+      <c r="D83" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="47" t="n">
+        <v>22346</v>
+      </c>
+      <c r="C84" s="47" t="n">
+        <v>23282</v>
+      </c>
+      <c r="D84" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="20" t="n">
+        <v>34431</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="47" t="n">
+        <v>69711</v>
+      </c>
+      <c r="C85" s="47" t="n">
+        <v>70972</v>
+      </c>
+      <c r="D85" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="23" t="n">
-        <v>74072</v>
-      </c>
-      <c r="C79" s="23" t="n">
-        <v>75069</v>
-      </c>
-      <c r="D79" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B80" s="23" t="n">
-        <v>24612</v>
-      </c>
-      <c r="C80" s="23" t="n">
-        <v>24907</v>
-      </c>
-      <c r="D80" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" s="23" t="n">
-        <v>3390</v>
-      </c>
-      <c r="C81" s="23" t="n">
-        <v>4780</v>
-      </c>
-      <c r="D81" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="44" t="n">
-        <v>27083.3</v>
-      </c>
-      <c r="C82" s="44" t="n">
-        <v>27409.8</v>
-      </c>
-      <c r="D82" s="23" t="n">
-        <v>30</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="43"/>
-      <c r="B83" s="23" t="n">
-        <v>97210</v>
-      </c>
-      <c r="C83" s="23" t="n">
-        <v>101204</v>
-      </c>
-      <c r="D83" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F83" s="15"/>
-    </row>
-    <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B84" s="23" t="n">
-        <v>87377</v>
-      </c>
-      <c r="C84" s="23" t="n">
-        <v>89022</v>
-      </c>
-      <c r="D84" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="23" t="n">
-        <v>97508</v>
-      </c>
-      <c r="C85" s="23" t="n">
-        <v>99989</v>
-      </c>
-      <c r="D85" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="45"/>
-      <c r="B86" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="15"/>
+      <c r="B86" s="47" t="n">
+        <v>34314</v>
+      </c>
+      <c r="C86" s="47" t="n">
+        <v>34953</v>
+      </c>
+      <c r="D86" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" s="32" t="n">
-        <v>23470</v>
-      </c>
-      <c r="C87" s="32" t="n">
-        <v>23792</v>
-      </c>
-      <c r="D87" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>171</v>
+      <c r="A87" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" s="47" t="n">
+        <v>40161</v>
+      </c>
+      <c r="C87" s="47" t="n">
+        <v>40972</v>
+      </c>
+      <c r="D87" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" s="32" t="n">
-        <v>5838</v>
-      </c>
-      <c r="C88" s="32" t="n">
-        <v>6104</v>
-      </c>
-      <c r="D88" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="32" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C89" s="32" t="n">
-        <v>14523</v>
-      </c>
-      <c r="D89" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>177</v>
+      <c r="A88" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>65566</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>66552</v>
+      </c>
+      <c r="D88" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="47" t="n">
+        <v>79459</v>
+      </c>
+      <c r="C89" s="47" t="n">
+        <v>80875</v>
+      </c>
+      <c r="D89" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="23" t="n">
-        <v>80782</v>
-      </c>
-      <c r="C90" s="23" t="n">
-        <v>81894</v>
-      </c>
-      <c r="D90" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>180</v>
+      <c r="A90" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="22" t="n">
+        <v>20075</v>
+      </c>
+      <c r="C90" s="22" t="n">
+        <v>20881</v>
+      </c>
+      <c r="D90" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="47" t="n">
+        <v>68157</v>
+      </c>
+      <c r="C91" s="47" t="n">
+        <v>69247</v>
+      </c>
+      <c r="D91" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B92" s="47" t="n">
+        <v>40781</v>
+      </c>
+      <c r="C92" s="47" t="n">
+        <v>41540</v>
+      </c>
+      <c r="D92" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="25" t="n">
+        <v>376877</v>
+      </c>
+      <c r="C93" s="25" t="n">
+        <v>376906</v>
+      </c>
+      <c r="D93" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>38296</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>38296</v>
+      </c>
+      <c r="D94" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" s="25" t="n">
+        <v>51848</v>
+      </c>
+      <c r="C95" s="25" t="n">
+        <v>52335</v>
+      </c>
+      <c r="D95" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" s="25" t="n">
+        <v>19323</v>
+      </c>
+      <c r="C96" s="25" t="n">
+        <v>19323</v>
+      </c>
+      <c r="D96" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="20" t="n">
+        <v>282335</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B97" s="25" t="n">
+        <v>92</v>
+      </c>
+      <c r="C97" s="25" t="n">
+        <v>92</v>
+      </c>
+      <c r="D97" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F97" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B98" s="25" t="n">
+        <v>14125</v>
+      </c>
+      <c r="C98" s="25" t="n">
+        <v>14182</v>
+      </c>
+      <c r="D98" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F98" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>102199</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>104226</v>
+      </c>
+      <c r="D99" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>324024</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>324990</v>
+      </c>
+      <c r="D100" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F100" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>380775</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>389121</v>
+      </c>
+      <c r="D101" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F101" s="54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>13642</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>13970</v>
+      </c>
+      <c r="D102" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F102" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>125493</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>125764</v>
+      </c>
+      <c r="D103" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F103" s="56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>44139</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>44716</v>
+      </c>
+      <c r="D104" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F104" s="54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>153727</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>153727</v>
+      </c>
+      <c r="D105" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" s="4" t="n">
+        <v>5006</v>
+      </c>
+      <c r="F105" s="54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>260288</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>261646</v>
+      </c>
+      <c r="D106" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F106" s="54" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>4070</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>4455</v>
+      </c>
+      <c r="D107" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F107" s="54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>463191</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>466288</v>
+      </c>
+      <c r="D108" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F108" s="54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>548734</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>555766</v>
+      </c>
+      <c r="D109" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F109" s="54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B110" s="60" t="n">
+        <v>51554</v>
+      </c>
+      <c r="C110" s="60" t="n">
+        <v>57272</v>
+      </c>
+      <c r="D110" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F110" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>3335</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>3510</v>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="62" t="n">
+        <v>27372</v>
+      </c>
+      <c r="F111" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" s="64" t="n">
+        <v>93059</v>
+      </c>
+      <c r="C112" s="64" t="n">
+        <v>94878</v>
+      </c>
+      <c r="D112" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F112" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>40104</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>40906</v>
+      </c>
+      <c r="D113" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" s="4" t="n">
+        <v>101522115</v>
+      </c>
+      <c r="F113" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>19847</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>20218</v>
+      </c>
+      <c r="D114" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F114" s="54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>27204</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>27526</v>
+      </c>
+      <c r="D115" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F115" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>249845</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>251227</v>
+      </c>
+      <c r="D116" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F116" s="54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>399994</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>399994</v>
+      </c>
+      <c r="D117" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F117" s="54" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>80795</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>80795</v>
+      </c>
+      <c r="D118" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F118" s="54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="B119" s="3" t="n">
+        <v>201005</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>201518</v>
+      </c>
+      <c r="D119" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F119" s="54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" s="3" t="n">
+        <v>347561</v>
+      </c>
+      <c r="C120" s="3" t="n">
+        <v>348441</v>
+      </c>
+      <c r="D120" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F120" s="54" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B121" s="3" t="n">
+        <v>288106</v>
+      </c>
+      <c r="C121" s="3" t="n">
+        <v>290045</v>
+      </c>
+      <c r="D121" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F121" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="G121" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="B122" s="3" t="n">
+        <v>392079</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>392079</v>
+      </c>
+      <c r="D122" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>806</v>
+      </c>
+      <c r="F122" s="54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>131733</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>134437</v>
+      </c>
+      <c r="D123" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F123" s="54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="B124" s="3" t="n">
+        <v>29110</v>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>29110</v>
+      </c>
+      <c r="D124" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="4" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F124" s="54" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" s="3" t="n">
+        <v>86552</v>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>87208</v>
+      </c>
+      <c r="D125" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F125" s="54" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>293507</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>294374</v>
+      </c>
+      <c r="D126" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F126" s="54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>22032</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>22763</v>
+      </c>
+      <c r="D127" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F127" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>265396</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>273893</v>
+      </c>
+      <c r="D128" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F128" s="54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>574318</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>577804</v>
+      </c>
+      <c r="D129" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4" t="n">
+        <v>35821</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="41" t="n">
-        <v>59389</v>
-      </c>
-      <c r="C91" s="41" t="n">
-        <v>60370</v>
-      </c>
-      <c r="D91" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92" s="23" t="n">
-        <v>28098</v>
-      </c>
-      <c r="C92" s="23" t="n">
-        <v>28345</v>
-      </c>
-      <c r="D92" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" s="23" t="n">
-        <v>84250</v>
-      </c>
-      <c r="C93" s="23" t="n">
-        <v>85282</v>
-      </c>
-      <c r="D93" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94" s="23" t="n">
-        <v>115805</v>
-      </c>
-      <c r="C94" s="23" t="n">
-        <v>117007</v>
-      </c>
-      <c r="D94" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B95" s="50" t="n">
-        <v>22346</v>
-      </c>
-      <c r="C95" s="50" t="n">
-        <v>23282</v>
-      </c>
-      <c r="D95" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" s="18" t="n">
-        <v>34431</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" s="50" t="n">
-        <v>69711</v>
-      </c>
-      <c r="C96" s="50" t="n">
-        <v>70972</v>
-      </c>
-      <c r="D96" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B97" s="50" t="n">
-        <v>34314</v>
-      </c>
-      <c r="C97" s="50" t="n">
-        <v>34953</v>
-      </c>
-      <c r="D97" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B98" s="50" t="n">
-        <v>40161</v>
-      </c>
-      <c r="C98" s="50" t="n">
-        <v>40972</v>
-      </c>
-      <c r="D98" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>65566</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>66552</v>
-      </c>
-      <c r="D99" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="B100" s="50" t="n">
-        <v>79459</v>
-      </c>
-      <c r="C100" s="50" t="n">
-        <v>80875</v>
-      </c>
-      <c r="D100" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B101" s="20" t="n">
-        <v>20075</v>
-      </c>
-      <c r="C101" s="20" t="n">
-        <v>20881</v>
-      </c>
-      <c r="D101" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B102" s="50" t="n">
-        <v>68157</v>
-      </c>
-      <c r="C102" s="50" t="n">
-        <v>69247</v>
-      </c>
-      <c r="D102" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B103" s="50" t="n">
-        <v>40781</v>
-      </c>
-      <c r="C103" s="50" t="n">
-        <v>41540</v>
-      </c>
-      <c r="D103" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="15"/>
-    </row>
-    <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="B105" s="23" t="n">
-        <v>376877</v>
-      </c>
-      <c r="C105" s="23" t="n">
-        <v>376906</v>
-      </c>
-      <c r="D105" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>38296</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>38296</v>
-      </c>
-      <c r="D106" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="54"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="57"/>
-    </row>
-    <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="B108" s="59"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="F108" s="61" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="62"/>
-      <c r="B109" s="63"/>
-      <c r="C109" s="63"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="57"/>
-    </row>
-    <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="65"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="57"/>
-    </row>
-    <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="66"/>
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="15"/>
-    </row>
-    <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="15"/>
-    </row>
-    <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="B114" s="23" t="n">
-        <v>51848</v>
-      </c>
-      <c r="C114" s="23" t="n">
-        <v>52335</v>
-      </c>
-      <c r="D114" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="F114" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B115" s="23" t="n">
-        <v>19323</v>
-      </c>
-      <c r="C115" s="23" t="n">
-        <v>19323</v>
-      </c>
-      <c r="D115" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="18" t="n">
-        <v>282335</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="70"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="55"/>
-      <c r="D116" s="71"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="57"/>
-    </row>
-    <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="70"/>
-      <c r="B117" s="55"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="71"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="57"/>
-    </row>
-    <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="42"/>
-      <c r="B118" s="23" t="n">
-        <v>92</v>
-      </c>
-      <c r="C118" s="23" t="n">
-        <v>92</v>
-      </c>
-      <c r="D118" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F118" s="72" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" s="23" t="n">
-        <v>14125</v>
-      </c>
-      <c r="C119" s="23" t="n">
-        <v>14182</v>
-      </c>
-      <c r="D119" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F119" s="72"/>
-    </row>
-    <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="73" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" s="74"/>
-      <c r="C120" s="74"/>
-      <c r="D120" s="75"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="77"/>
-    </row>
-    <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="78"/>
-      <c r="B121" s="2" t="n">
-        <v>102199</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>104226</v>
-      </c>
-      <c r="D121" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="79" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>324024</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>324990</v>
-      </c>
-      <c r="D122" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F122" s="80" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="81" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>380775</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>389121</v>
-      </c>
-      <c r="D123" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F123" s="80" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="79" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>13642</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>13970</v>
-      </c>
-      <c r="D124" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F124" s="80" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="79" t="s">
-        <v>249</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>125493</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>125764</v>
-      </c>
-      <c r="D125" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F125" s="82" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>44139</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>44716</v>
-      </c>
-      <c r="D126" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F126" s="80" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="83" t="s">
-        <v>255</v>
-      </c>
-      <c r="B127" s="2" t="n">
-        <v>153727</v>
-      </c>
-      <c r="C127" s="2" t="n">
-        <v>153727</v>
-      </c>
-      <c r="D127" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E127" s="3" t="n">
-        <v>5006</v>
-      </c>
-      <c r="F127" s="80" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="79"/>
-      <c r="B128" s="2" t="n">
-        <v>260288</v>
-      </c>
-      <c r="C128" s="2" t="n">
-        <v>261646</v>
-      </c>
-      <c r="D128" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F128" s="80" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="79" t="s">
-        <v>259</v>
-      </c>
-      <c r="B129" s="2" t="n">
-        <v>4070</v>
-      </c>
-      <c r="C129" s="2" t="n">
-        <v>4455</v>
-      </c>
-      <c r="D129" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F129" s="80" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="B130" s="2" t="n">
-        <v>463191</v>
-      </c>
-      <c r="C130" s="2" t="n">
-        <v>466288</v>
-      </c>
-      <c r="D130" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F130" s="80" t="s">
-        <v>264</v>
+      <c r="B130" s="3" t="n">
+        <v>30330</v>
+      </c>
+      <c r="C130" s="3" t="n">
+        <v>31155</v>
+      </c>
+      <c r="D130" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" s="4" t="n">
+        <v>103473542</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G130" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="B131" s="2" t="n">
-        <v>548734</v>
-      </c>
-      <c r="C131" s="2" t="n">
-        <v>555766</v>
-      </c>
-      <c r="D131" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F131" s="80" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="84" t="s">
-        <v>268</v>
-      </c>
-      <c r="B132" s="85" t="n">
-        <v>51554</v>
-      </c>
-      <c r="C132" s="85" t="n">
-        <v>57272</v>
-      </c>
-      <c r="D132" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F132" s="80" t="s">
-        <v>270</v>
+      <c r="A131" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>26099</v>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>26789</v>
+      </c>
+      <c r="D131" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>45043</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>46028</v>
+      </c>
+      <c r="D132" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="84"/>
-      <c r="B133" s="2" t="n">
-        <v>3335</v>
-      </c>
-      <c r="C133" s="2" t="n">
-        <v>3510</v>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" s="87" t="n">
-        <v>27372</v>
-      </c>
-      <c r="F133" s="82" t="s">
-        <v>271</v>
+      <c r="A133" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="B133" s="3" t="n">
+        <v>59424</v>
+      </c>
+      <c r="C133" s="3" t="n">
+        <v>59811</v>
+      </c>
+      <c r="D133" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4" t="n">
+        <v>4616</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="88" t="s">
-        <v>272</v>
-      </c>
-      <c r="B134" s="89" t="n">
-        <v>93059</v>
-      </c>
-      <c r="C134" s="89" t="n">
-        <v>94878</v>
-      </c>
-      <c r="D134" s="90" t="n">
-        <v>1</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F134" s="80" t="s">
-        <v>274</v>
+      <c r="A134" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="B134" s="3" t="n">
+        <v>69465.54</v>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>71117</v>
+      </c>
+      <c r="D134" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="B135" s="2" t="n">
-        <v>40104</v>
-      </c>
-      <c r="C135" s="2" t="n">
-        <v>40906</v>
-      </c>
-      <c r="D135" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E135" s="3" t="n">
-        <v>101522115</v>
-      </c>
-      <c r="F135" s="80" t="s">
-        <v>276</v>
+      <c r="A135" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="B135" s="3" t="n">
+        <v>67645</v>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>73427</v>
+      </c>
+      <c r="D135" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="B136" s="2" t="n">
-        <v>19847</v>
-      </c>
-      <c r="C136" s="2" t="n">
-        <v>20218</v>
-      </c>
-      <c r="D136" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F136" s="80" t="s">
-        <v>279</v>
+      <c r="A136" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B136" s="3" t="n">
+        <v>17252</v>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>17863</v>
+      </c>
+      <c r="D136" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="B137" s="2" t="n">
-        <v>27204</v>
-      </c>
-      <c r="C137" s="2" t="n">
-        <v>27526</v>
-      </c>
-      <c r="D137" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F137" s="80" t="s">
-        <v>282</v>
+      <c r="A137" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="B137" s="3" t="n">
+        <v>13414</v>
+      </c>
+      <c r="C137" s="3" t="n">
+        <v>14936</v>
+      </c>
+      <c r="D137" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="B138" s="2" t="n">
-        <v>249845</v>
-      </c>
-      <c r="C138" s="2" t="n">
-        <v>251227</v>
-      </c>
-      <c r="D138" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F138" s="80" t="s">
-        <v>285</v>
+      <c r="A138" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B138" s="22" t="n">
+        <v>15585</v>
+      </c>
+      <c r="C138" s="22" t="n">
+        <v>15809</v>
+      </c>
+      <c r="D138" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="20" t="n">
+        <v>2262538</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="B139" s="2" t="n">
-        <v>399994</v>
-      </c>
-      <c r="C139" s="2" t="n">
-        <v>399994</v>
-      </c>
-      <c r="D139" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F139" s="80" t="s">
-        <v>288</v>
+      <c r="A139" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B139" s="22" t="n">
+        <v>45710</v>
+      </c>
+      <c r="C139" s="22" t="n">
+        <v>46181</v>
+      </c>
+      <c r="D139" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" s="20" t="n">
+        <v>5521045</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="B140" s="2" t="n">
-        <v>80795</v>
-      </c>
-      <c r="C140" s="2" t="n">
-        <v>80795</v>
-      </c>
-      <c r="D140" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F140" s="80" t="s">
-        <v>291</v>
+      <c r="A140" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B140" s="22" t="n">
+        <v>37727</v>
+      </c>
+      <c r="C140" s="22" t="n">
+        <v>38097</v>
+      </c>
+      <c r="D140" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="20" t="n">
+        <v>2261340</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="B141" s="2" t="n">
-        <v>201005</v>
-      </c>
-      <c r="C141" s="2" t="n">
-        <v>201518</v>
-      </c>
-      <c r="D141" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F141" s="80" t="s">
-        <v>294</v>
+      <c r="A141" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B141" s="22" t="n">
+        <v>47544</v>
+      </c>
+      <c r="C141" s="22" t="n">
+        <v>48251</v>
+      </c>
+      <c r="D141" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="20" t="n">
+        <v>5510929</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="B142" s="2" t="n">
-        <v>347561</v>
-      </c>
-      <c r="C142" s="2" t="n">
-        <v>348441</v>
-      </c>
-      <c r="D142" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F142" s="80" t="s">
-        <v>297</v>
+      <c r="A142" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B142" s="22" t="n">
+        <v>69881</v>
+      </c>
+      <c r="C142" s="22" t="n">
+        <v>70246</v>
+      </c>
+      <c r="D142" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="20" t="n">
+        <v>5511505</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="B143" s="2" t="n">
-        <v>288106</v>
-      </c>
-      <c r="C143" s="2" t="n">
-        <v>290045</v>
-      </c>
-      <c r="D143" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F143" s="80" t="s">
-        <v>300</v>
+      <c r="A143" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B143" s="22" t="n">
+        <v>39617</v>
+      </c>
+      <c r="C143" s="22" t="n">
+        <v>39798</v>
+      </c>
+      <c r="D143" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" s="20" t="n">
+        <v>5510311</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="B144" s="2" t="n">
-        <v>392079</v>
-      </c>
-      <c r="C144" s="2" t="n">
-        <v>392079</v>
-      </c>
-      <c r="D144" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E144" s="3" t="n">
-        <v>806</v>
-      </c>
-      <c r="F144" s="80" t="s">
-        <v>302</v>
+      <c r="A144" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B144" s="22" t="n">
+        <v>50405</v>
+      </c>
+      <c r="C144" s="22" t="n">
+        <v>50673</v>
+      </c>
+      <c r="D144" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="20" t="n">
+        <v>5510177</v>
+      </c>
+      <c r="F144" s="17" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="79" t="s">
-        <v>303</v>
-      </c>
-      <c r="B145" s="2" t="n">
-        <v>131733</v>
-      </c>
-      <c r="C145" s="2" t="n">
-        <v>134437</v>
-      </c>
-      <c r="D145" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F145" s="80" t="s">
-        <v>305</v>
+      <c r="A145" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B145" s="22" t="n">
+        <v>90467</v>
+      </c>
+      <c r="C145" s="22" t="n">
+        <v>90776</v>
+      </c>
+      <c r="D145" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="20" t="n">
+        <v>2262535</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="B146" s="2" t="n">
-        <v>29110</v>
-      </c>
-      <c r="C146" s="2" t="n">
-        <v>29110</v>
-      </c>
-      <c r="D146" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" s="3" t="n">
-        <v>2125</v>
-      </c>
-      <c r="F146" s="80" t="s">
-        <v>307</v>
+      <c r="A146" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="B146" s="22" t="n">
+        <v>47388</v>
+      </c>
+      <c r="C146" s="22" t="n">
+        <v>48253</v>
+      </c>
+      <c r="D146" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F146" s="17" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="79"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="80"/>
+      <c r="A147" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="B147" s="22" t="n">
+        <v>309092</v>
+      </c>
+      <c r="C147" s="22" t="n">
+        <v>321141</v>
+      </c>
+      <c r="D147" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F147" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="G147" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="79" t="s">
-        <v>308</v>
-      </c>
-      <c r="B148" s="2" t="n">
-        <v>86552</v>
-      </c>
-      <c r="C148" s="2" t="n">
-        <v>87208</v>
-      </c>
-      <c r="D148" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F148" s="80" t="s">
-        <v>310</v>
+      <c r="A148" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="B148" s="66" t="n">
+        <v>666</v>
+      </c>
+      <c r="C148" s="66" t="n">
+        <v>2187</v>
+      </c>
+      <c r="D148" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="68" t="s">
+        <v>355</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="79" t="s">
+      <c r="A149" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="B149" s="66" t="n">
         <v>311</v>
       </c>
-      <c r="B149" s="2" t="n">
-        <v>293507</v>
-      </c>
-      <c r="C149" s="2" t="n">
-        <v>294374</v>
-      </c>
-      <c r="D149" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F149" s="80" t="s">
-        <v>313</v>
+      <c r="C149" s="66" t="n">
+        <v>338</v>
+      </c>
+      <c r="D149" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="F149" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="G149" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="79"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="80"/>
+      <c r="A150" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B150" s="66" t="n">
+        <v>28648</v>
+      </c>
+      <c r="C150" s="66" t="n">
+        <v>28981</v>
+      </c>
+      <c r="D150" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="20" t="n">
+        <v>5510402</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="79" t="s">
-        <v>314</v>
-      </c>
-      <c r="B151" s="2" t="n">
-        <v>22032</v>
-      </c>
-      <c r="C151" s="2" t="n">
-        <v>22763</v>
-      </c>
-      <c r="D151" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F151" s="80" t="s">
-        <v>316</v>
+      <c r="A151" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B151" s="66" t="n">
+        <v>38683</v>
+      </c>
+      <c r="C151" s="66" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D151" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="20" t="n">
+        <v>5509256</v>
+      </c>
+      <c r="F151" s="17" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="79" t="s">
-        <v>317</v>
-      </c>
-      <c r="B152" s="2" t="n">
-        <v>265396</v>
-      </c>
-      <c r="C152" s="2" t="n">
-        <v>273893</v>
-      </c>
-      <c r="D152" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F152" s="80" t="s">
-        <v>319</v>
+      <c r="A152" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B152" s="66" t="n">
+        <v>34671</v>
+      </c>
+      <c r="C152" s="66" t="n">
+        <v>35175</v>
+      </c>
+      <c r="D152" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="20" t="n">
+        <v>5509265</v>
+      </c>
+      <c r="F152" s="17" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="B153" s="2" t="n">
-        <v>574318</v>
-      </c>
-      <c r="C153" s="2" t="n">
-        <v>577804</v>
-      </c>
-      <c r="D153" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" s="3" t="n">
-        <v>35821</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>321</v>
+      <c r="A153" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B153" s="66" t="n">
+        <v>23641</v>
+      </c>
+      <c r="C153" s="66" t="n">
+        <v>23901</v>
+      </c>
+      <c r="D153" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" s="20" t="n">
+        <v>5518342</v>
+      </c>
+      <c r="F153" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B154" s="2" t="n">
-        <v>30330</v>
-      </c>
-      <c r="C154" s="2" t="n">
-        <v>31155</v>
-      </c>
-      <c r="D154" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E154" s="3" t="n">
-        <v>103473542</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>322</v>
+      <c r="A154" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B154" s="66" t="n">
+        <v>26310</v>
+      </c>
+      <c r="C154" s="66" t="n">
+        <v>26649</v>
+      </c>
+      <c r="D154" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" s="20" t="n">
+        <v>2262004</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="81" t="s">
-        <v>298</v>
-      </c>
-      <c r="B155" s="2" t="n">
-        <v>26099</v>
-      </c>
-      <c r="C155" s="2" t="n">
-        <v>26789</v>
-      </c>
-      <c r="D155" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>324</v>
+      <c r="A155" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B155" s="66" t="n">
+        <v>23771</v>
+      </c>
+      <c r="C155" s="66" t="n">
+        <v>24134</v>
+      </c>
+      <c r="D155" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="20" t="n">
+        <v>2262573</v>
+      </c>
+      <c r="F155" s="17" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="81" t="s">
-        <v>325</v>
-      </c>
-      <c r="B156" s="2" t="n">
-        <v>45043</v>
-      </c>
-      <c r="C156" s="2" t="n">
-        <v>46028</v>
-      </c>
-      <c r="D156" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>327</v>
+      <c r="A156" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B156" s="66" t="n">
+        <v>63384</v>
+      </c>
+      <c r="C156" s="66" t="n">
+        <v>63843</v>
+      </c>
+      <c r="D156" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="20" t="n">
+        <v>2262504</v>
+      </c>
+      <c r="F156" s="17" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="B157" s="2" t="n">
-        <v>59424</v>
-      </c>
-      <c r="C157" s="2" t="n">
-        <v>59811</v>
-      </c>
-      <c r="D157" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" s="3" t="n">
-        <v>4616</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>329</v>
+      <c r="A157" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="B157" s="66" t="n">
+        <v>15247</v>
+      </c>
+      <c r="C157" s="66" t="n">
+        <v>15421</v>
+      </c>
+      <c r="D157" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="20" t="n">
+        <v>282333</v>
+      </c>
+      <c r="F157" s="17" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="B158" s="2" t="n">
-        <v>69465.54</v>
-      </c>
-      <c r="C158" s="2" t="n">
-        <v>71117</v>
-      </c>
-      <c r="D158" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>330</v>
+      <c r="A158" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="B158" s="70" t="n">
+        <v>50865</v>
+      </c>
+      <c r="C158" s="70" t="n">
+        <v>51370</v>
+      </c>
+      <c r="D158" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" s="20" t="n">
+        <v>2261380</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="B159" s="2" t="n">
-        <v>67645</v>
-      </c>
-      <c r="C159" s="2" t="n">
-        <v>73427</v>
-      </c>
-      <c r="D159" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>334</v>
+      <c r="A159" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B159" s="66" t="n">
+        <v>42066</v>
+      </c>
+      <c r="C159" s="66" t="n">
+        <v>42066</v>
+      </c>
+      <c r="D159" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="20" t="n">
+        <v>3263</v>
+      </c>
+      <c r="F159" s="17" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="53"/>
-      <c r="B160" s="2" t="n">
-        <v>17252</v>
-      </c>
-      <c r="C160" s="2" t="n">
-        <v>17863</v>
-      </c>
-      <c r="D160" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>336</v>
+      <c r="A160" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B160" s="66" t="n">
+        <v>911</v>
+      </c>
+      <c r="C160" s="66" t="n">
+        <v>964</v>
+      </c>
+      <c r="D160" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="B161" s="2" t="n">
-        <v>13414</v>
-      </c>
-      <c r="C161" s="2" t="n">
-        <v>14936</v>
-      </c>
-      <c r="D161" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>338</v>
+      <c r="A161" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B161" s="66" t="n">
+        <v>10963</v>
+      </c>
+      <c r="C161" s="66" t="n">
+        <v>11383</v>
+      </c>
+      <c r="D161" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="F161" s="17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B162" s="66" t="n">
+        <v>110446</v>
+      </c>
+      <c r="C162" s="66" t="n">
+        <v>110996</v>
+      </c>
+      <c r="D162" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B163" s="66" t="n">
+        <v>259728</v>
+      </c>
+      <c r="C163" s="66" t="n">
+        <v>261668</v>
+      </c>
+      <c r="D163" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="F163" s="17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B164" s="66" t="n">
+        <v>71938</v>
+      </c>
+      <c r="C164" s="66" t="n">
+        <v>73340</v>
+      </c>
+      <c r="D164" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" s="20" t="n">
+        <v>2261167</v>
+      </c>
+      <c r="F164" s="17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B165" s="66" t="n">
+        <v>4706</v>
+      </c>
+      <c r="C165" s="66" t="n">
+        <v>5158</v>
+      </c>
+      <c r="D165" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="F165" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="B166" s="66" t="n">
+        <v>13911</v>
+      </c>
+      <c r="C166" s="66" t="n">
+        <v>13957</v>
+      </c>
+      <c r="D166" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" s="20" t="n">
+        <v>370293</v>
+      </c>
+      <c r="F166" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B167" s="66" t="n">
+        <v>6544</v>
+      </c>
+      <c r="C167" s="66" t="n">
+        <v>6544</v>
+      </c>
+      <c r="D167" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" s="20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="F167" s="17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="B168" s="25" t="n">
+        <v>18764</v>
+      </c>
+      <c r="C168" s="25" t="n">
+        <v>19154</v>
+      </c>
+      <c r="D168" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="F168" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="B169" s="67" t="n">
+        <v>4560</v>
+      </c>
+      <c r="C169" s="67" t="n">
+        <v>4649</v>
+      </c>
+      <c r="D169" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="F169" s="17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="B170" s="25" t="n">
+        <v>9564</v>
+      </c>
+      <c r="C170" s="25" t="n">
+        <v>9676</v>
+      </c>
+      <c r="D170" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="F170" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="B171" s="67" t="n">
+        <v>49509</v>
+      </c>
+      <c r="C171" s="67" t="n">
+        <v>51705</v>
+      </c>
+      <c r="D171" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="B172" s="72" t="n">
+        <v>119850</v>
+      </c>
+      <c r="C172" s="72" t="n">
+        <v>122957</v>
+      </c>
+      <c r="D172" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" s="62" t="n">
+        <v>3855</v>
+      </c>
+      <c r="F172" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="G172" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="B173" s="72" t="n">
+        <v>51110</v>
+      </c>
+      <c r="C173" s="72" t="n">
+        <v>51435</v>
+      </c>
+      <c r="D173" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="F173" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="G173" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="B174" s="67" t="n">
+        <v>16157</v>
+      </c>
+      <c r="C174" s="67" t="n">
+        <v>16293</v>
+      </c>
+      <c r="D174" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="F174" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B175" s="67" t="n">
+        <v>18828</v>
+      </c>
+      <c r="C175" s="67" t="n">
+        <v>19059</v>
+      </c>
+      <c r="D175" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="F175" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B176" s="67" t="n">
+        <v>18641</v>
+      </c>
+      <c r="C176" s="67" t="n">
+        <v>18836</v>
+      </c>
+      <c r="D176" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="F176" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="B177" s="67" t="n">
+        <v>22091</v>
+      </c>
+      <c r="C177" s="67" t="n">
+        <v>22322</v>
+      </c>
+      <c r="D177" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F177" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B178" s="67" t="n">
+        <v>21385</v>
+      </c>
+      <c r="C178" s="67" t="n">
+        <v>21550</v>
+      </c>
+      <c r="D178" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="F178" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="B179" s="67" t="n">
+        <v>37450</v>
+      </c>
+      <c r="C179" s="67" t="n">
+        <v>38151</v>
+      </c>
+      <c r="D179" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="F179" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="G179" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="B180" s="67" t="n">
+        <v>10045</v>
+      </c>
+      <c r="C180" s="67" t="n">
+        <v>10181</v>
+      </c>
+      <c r="D180" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="F180" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="G180" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="B181" s="67" t="n">
+        <v>92147</v>
+      </c>
+      <c r="C181" s="67" t="n">
+        <v>93143</v>
+      </c>
+      <c r="D181" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="F181" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B182" s="67" t="n">
+        <v>42900</v>
+      </c>
+      <c r="C182" s="67" t="n">
+        <v>43348</v>
+      </c>
+      <c r="D182" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="F182" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B183" s="67" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C183" s="67" t="n">
+        <v>9726</v>
+      </c>
+      <c r="D183" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="F183" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B184" s="67" t="n">
+        <v>15474</v>
+      </c>
+      <c r="C184" s="67" t="n">
+        <v>15474</v>
+      </c>
+      <c r="D184" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B185" s="67" t="n">
+        <v>24937</v>
+      </c>
+      <c r="C185" s="67" t="n">
+        <v>25574</v>
+      </c>
+      <c r="D185" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="B186" s="67" t="n">
+        <v>14319</v>
+      </c>
+      <c r="C186" s="67" t="n">
+        <v>15243</v>
+      </c>
+      <c r="D186" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="F186" s="17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B187" s="67" t="n">
+        <v>17358</v>
+      </c>
+      <c r="C187" s="67" t="n">
+        <v>17615</v>
+      </c>
+      <c r="D187" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="F187" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B188" s="67" t="n">
+        <v>46075</v>
+      </c>
+      <c r="C188" s="67" t="n">
+        <v>46343</v>
+      </c>
+      <c r="D188" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="B189" s="67" t="n">
+        <v>24773</v>
+      </c>
+      <c r="C189" s="67" t="n">
+        <v>25111</v>
+      </c>
+      <c r="D189" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="F189" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B190" s="67" t="n">
+        <v>36173</v>
+      </c>
+      <c r="C190" s="67" t="n">
+        <v>36546</v>
+      </c>
+      <c r="D190" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="F190" s="17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="B191" s="74" t="n">
+        <v>66445</v>
+      </c>
+      <c r="C191" s="74" t="n">
+        <v>66445</v>
+      </c>
+      <c r="D191" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="F191" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="B192" s="67" t="n">
+        <v>60945</v>
+      </c>
+      <c r="C192" s="67" t="n">
+        <v>61833</v>
+      </c>
+      <c r="D192" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="B193" s="25" t="n">
+        <v>76705</v>
+      </c>
+      <c r="C193" s="25" t="n">
+        <v>77913</v>
+      </c>
+      <c r="D193" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="F193" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="B194" s="67" t="n">
+        <v>46237</v>
+      </c>
+      <c r="C194" s="67" t="n">
+        <v>47733</v>
+      </c>
+      <c r="D194" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="B195" s="67" t="n">
+        <v>56994</v>
+      </c>
+      <c r="C195" s="67" t="n">
+        <v>57578</v>
+      </c>
+      <c r="D195" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B196" s="67" t="n">
+        <v>180061</v>
+      </c>
+      <c r="C196" s="67" t="n">
+        <v>180914</v>
+      </c>
+      <c r="D196" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="B197" s="25" t="n">
+        <v>59166</v>
+      </c>
+      <c r="C197" s="25" t="n">
+        <v>59720</v>
+      </c>
+      <c r="D197" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="F197" s="17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B198" s="25" t="n">
+        <v>34036</v>
+      </c>
+      <c r="C198" s="25" t="n">
+        <v>34377</v>
+      </c>
+      <c r="D198" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="F198" s="17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B199" s="25" t="n">
+        <v>17425</v>
+      </c>
+      <c r="C199" s="25" t="n">
+        <v>17756</v>
+      </c>
+      <c r="D199" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="F199" s="17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="B200" s="25" t="n">
+        <v>244632</v>
+      </c>
+      <c r="C200" s="25" t="n">
+        <v>245588</v>
+      </c>
+      <c r="D200" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="F200" s="17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="B201" s="25" t="n">
+        <v>44291</v>
+      </c>
+      <c r="C201" s="25" t="n">
+        <v>44861</v>
+      </c>
+      <c r="D201" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="F201" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="71" t="s">
+        <v>496</v>
+      </c>
+      <c r="B202" s="25" t="n">
+        <v>27245</v>
+      </c>
+      <c r="C202" s="25" t="n">
+        <v>29028</v>
+      </c>
+      <c r="D202" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="F202" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="G202" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="71" t="s">
+        <v>496</v>
+      </c>
+      <c r="B203" s="25" t="n">
+        <v>36408</v>
+      </c>
+      <c r="C203" s="25" t="n">
+        <v>37965</v>
+      </c>
+      <c r="D203" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="F203" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="G203" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="B204" s="25" t="n">
+        <v>109174</v>
+      </c>
+      <c r="C204" s="25" t="n">
+        <v>118529</v>
+      </c>
+      <c r="D204" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F204" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="B205" s="25" t="n">
+        <v>65889</v>
+      </c>
+      <c r="C205" s="25" t="n">
+        <v>66471</v>
+      </c>
+      <c r="D205" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="F205" s="17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="75" t="s">
+        <v>506</v>
+      </c>
+      <c r="B207" s="25" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C207" s="25" t="n">
+        <v>47195</v>
+      </c>
+      <c r="D207" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" s="20" t="n">
+        <v>3275</v>
+      </c>
+      <c r="F207" s="17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="75" t="s">
+        <v>508</v>
+      </c>
+      <c r="B208" s="25" t="n">
+        <v>188294</v>
+      </c>
+      <c r="C208" s="25" t="n">
+        <v>189525</v>
+      </c>
+      <c r="D208" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" s="20" t="n">
+        <v>3868</v>
+      </c>
+      <c r="F208" s="17" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="A132:A133"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/databases/xlsx/import 2021.06 июнь/import 2021.06 июнь.xlsx
+++ b/databases/xlsx/import 2021.06 июнь/import 2021.06 июнь.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Корректировки показаний" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="516">
   <si>
     <t xml:space="preserve">ООО Будь здоров (Ригла)</t>
   </si>
@@ -2369,6 +2370,24 @@
   </si>
   <si>
     <t xml:space="preserve">корп.№1, Зоомагазин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ счетчика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Примечание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корректные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕ корректные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предыдущие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текущие</t>
   </si>
 </sst>
 </file>
@@ -2569,7 +2588,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2578,14 +2597,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -2676,7 +2707,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2945,10 +2976,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2977,11 +3004,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3015,7 +3090,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -3031,12 +3106,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFDBB6"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -3063,13 +3138,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F198" activeCellId="0" sqref="F198"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B172" activeCellId="0" sqref="B172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="92.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.41"/>
@@ -3077,7 +3152,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="138.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,10 +6168,10 @@
       <c r="C148" s="66" t="n">
         <v>2187</v>
       </c>
-      <c r="D148" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="68" t="s">
+      <c r="D148" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="67" t="s">
         <v>355</v>
       </c>
       <c r="F148" s="17" t="s">
@@ -6116,7 +6191,7 @@
       <c r="C149" s="66" t="n">
         <v>338</v>
       </c>
-      <c r="D149" s="67" t="n">
+      <c r="D149" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E149" s="20" t="s">
@@ -6290,13 +6365,13 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="69" t="s">
+      <c r="A158" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="B158" s="70" t="n">
+      <c r="B158" s="69" t="n">
         <v>50865</v>
       </c>
-      <c r="C158" s="70" t="n">
+      <c r="C158" s="69" t="n">
         <v>51370</v>
       </c>
       <c r="D158" s="26" t="n">
@@ -6439,7 +6514,7 @@
       <c r="C165" s="66" t="n">
         <v>5158</v>
       </c>
-      <c r="D165" s="67" t="n">
+      <c r="D165" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E165" s="20" t="s">
@@ -6459,7 +6534,7 @@
       <c r="C166" s="66" t="n">
         <v>13957</v>
       </c>
-      <c r="D166" s="67" t="n">
+      <c r="D166" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E166" s="20" t="n">
@@ -6479,7 +6554,7 @@
       <c r="C167" s="66" t="n">
         <v>6544</v>
       </c>
-      <c r="D167" s="67" t="n">
+      <c r="D167" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E167" s="20" t="n">
@@ -6513,13 +6588,13 @@
       <c r="A169" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="B169" s="67" t="n">
+      <c r="B169" s="37" t="n">
         <v>4560</v>
       </c>
-      <c r="C169" s="67" t="n">
+      <c r="C169" s="37" t="n">
         <v>4649</v>
       </c>
-      <c r="D169" s="67" t="n">
+      <c r="D169" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E169" s="20" t="s">
@@ -6550,16 +6625,16 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="69" t="s">
+      <c r="A171" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="B171" s="67" t="n">
+      <c r="B171" s="37" t="n">
         <v>49509</v>
       </c>
-      <c r="C171" s="67" t="n">
+      <c r="C171" s="37" t="n">
         <v>51705</v>
       </c>
-      <c r="D171" s="67" t="n">
+      <c r="D171" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E171" s="20" t="s">
@@ -6570,16 +6645,16 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="71" t="s">
+      <c r="A172" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="B172" s="72" t="n">
-        <v>119850</v>
-      </c>
-      <c r="C172" s="72" t="n">
-        <v>122957</v>
-      </c>
-      <c r="D172" s="72" t="n">
+      <c r="B172" s="71" t="n">
+        <v>51110</v>
+      </c>
+      <c r="C172" s="71" t="n">
+        <v>51435</v>
+      </c>
+      <c r="D172" s="71" t="n">
         <v>1</v>
       </c>
       <c r="E172" s="62" t="n">
@@ -6593,16 +6668,16 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="71" t="s">
+      <c r="A173" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="B173" s="72" t="n">
-        <v>51110</v>
-      </c>
-      <c r="C173" s="72" t="n">
-        <v>51435</v>
-      </c>
-      <c r="D173" s="72" t="n">
+      <c r="B173" s="71" t="n">
+        <v>119850</v>
+      </c>
+      <c r="C173" s="71" t="n">
+        <v>122957</v>
+      </c>
+      <c r="D173" s="71" t="n">
         <v>1</v>
       </c>
       <c r="E173" s="20" t="s">
@@ -6619,13 +6694,13 @@
       <c r="A174" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="B174" s="67" t="n">
+      <c r="B174" s="37" t="n">
         <v>16157</v>
       </c>
-      <c r="C174" s="67" t="n">
+      <c r="C174" s="37" t="n">
         <v>16293</v>
       </c>
-      <c r="D174" s="67" t="n">
+      <c r="D174" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E174" s="20" t="s">
@@ -6639,13 +6714,13 @@
       <c r="A175" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="B175" s="67" t="n">
+      <c r="B175" s="37" t="n">
         <v>18828</v>
       </c>
-      <c r="C175" s="67" t="n">
+      <c r="C175" s="37" t="n">
         <v>19059</v>
       </c>
-      <c r="D175" s="67" t="n">
+      <c r="D175" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E175" s="20" t="s">
@@ -6659,13 +6734,13 @@
       <c r="A176" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="B176" s="67" t="n">
+      <c r="B176" s="37" t="n">
         <v>18641</v>
       </c>
-      <c r="C176" s="67" t="n">
+      <c r="C176" s="37" t="n">
         <v>18836</v>
       </c>
-      <c r="D176" s="67" t="n">
+      <c r="D176" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E176" s="20" t="s">
@@ -6679,13 +6754,13 @@
       <c r="A177" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="B177" s="67" t="n">
+      <c r="B177" s="37" t="n">
         <v>22091</v>
       </c>
-      <c r="C177" s="67" t="n">
+      <c r="C177" s="37" t="n">
         <v>22322</v>
       </c>
-      <c r="D177" s="67" t="n">
+      <c r="D177" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E177" s="20" t="s">
@@ -6699,13 +6774,13 @@
       <c r="A178" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="B178" s="67" t="n">
+      <c r="B178" s="37" t="n">
         <v>21385</v>
       </c>
-      <c r="C178" s="67" t="n">
+      <c r="C178" s="37" t="n">
         <v>21550</v>
       </c>
-      <c r="D178" s="67" t="n">
+      <c r="D178" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E178" s="20" t="s">
@@ -6716,16 +6791,16 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="73" t="s">
+      <c r="A179" s="72" t="s">
         <v>428</v>
       </c>
-      <c r="B179" s="67" t="n">
+      <c r="B179" s="37" t="n">
         <v>37450</v>
       </c>
-      <c r="C179" s="67" t="n">
+      <c r="C179" s="37" t="n">
         <v>38151</v>
       </c>
-      <c r="D179" s="67" t="n">
+      <c r="D179" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E179" s="20" t="s">
@@ -6739,16 +6814,16 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="73" t="s">
+      <c r="A180" s="72" t="s">
         <v>428</v>
       </c>
-      <c r="B180" s="67" t="n">
+      <c r="B180" s="37" t="n">
         <v>10045</v>
       </c>
-      <c r="C180" s="67" t="n">
+      <c r="C180" s="37" t="n">
         <v>10181</v>
       </c>
-      <c r="D180" s="67" t="n">
+      <c r="D180" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E180" s="20" t="s">
@@ -6765,13 +6840,13 @@
       <c r="A181" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="B181" s="67" t="n">
+      <c r="B181" s="37" t="n">
         <v>92147</v>
       </c>
-      <c r="C181" s="67" t="n">
+      <c r="C181" s="37" t="n">
         <v>93143</v>
       </c>
-      <c r="D181" s="67" t="n">
+      <c r="D181" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E181" s="20" t="s">
@@ -6785,13 +6860,13 @@
       <c r="A182" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="B182" s="67" t="n">
+      <c r="B182" s="37" t="n">
         <v>42900</v>
       </c>
-      <c r="C182" s="67" t="n">
+      <c r="C182" s="37" t="n">
         <v>43348</v>
       </c>
-      <c r="D182" s="67" t="n">
+      <c r="D182" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E182" s="20" t="s">
@@ -6805,13 +6880,13 @@
       <c r="A183" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="B183" s="67" t="n">
+      <c r="B183" s="37" t="n">
         <v>9640</v>
       </c>
-      <c r="C183" s="67" t="n">
+      <c r="C183" s="37" t="n">
         <v>9726</v>
       </c>
-      <c r="D183" s="67" t="n">
+      <c r="D183" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E183" s="20" t="s">
@@ -6825,13 +6900,13 @@
       <c r="A184" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="B184" s="67" t="n">
+      <c r="B184" s="37" t="n">
         <v>15474</v>
       </c>
-      <c r="C184" s="67" t="n">
+      <c r="C184" s="37" t="n">
         <v>15474</v>
       </c>
-      <c r="D184" s="67" t="n">
+      <c r="D184" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E184" s="20" t="s">
@@ -6845,13 +6920,13 @@
       <c r="A185" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="B185" s="67" t="n">
+      <c r="B185" s="37" t="n">
         <v>24937</v>
       </c>
-      <c r="C185" s="67" t="n">
+      <c r="C185" s="37" t="n">
         <v>25574</v>
       </c>
-      <c r="D185" s="67" t="n">
+      <c r="D185" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E185" s="20" t="s">
@@ -6865,13 +6940,13 @@
       <c r="A186" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="B186" s="67" t="n">
+      <c r="B186" s="37" t="n">
         <v>14319</v>
       </c>
-      <c r="C186" s="67" t="n">
+      <c r="C186" s="37" t="n">
         <v>15243</v>
       </c>
-      <c r="D186" s="67" t="n">
+      <c r="D186" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E186" s="20" t="s">
@@ -6885,13 +6960,13 @@
       <c r="A187" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="B187" s="67" t="n">
+      <c r="B187" s="37" t="n">
         <v>17358</v>
       </c>
-      <c r="C187" s="67" t="n">
+      <c r="C187" s="37" t="n">
         <v>17615</v>
       </c>
-      <c r="D187" s="67" t="n">
+      <c r="D187" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E187" s="20" t="s">
@@ -6905,13 +6980,13 @@
       <c r="A188" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="B188" s="67" t="n">
+      <c r="B188" s="37" t="n">
         <v>46075</v>
       </c>
-      <c r="C188" s="67" t="n">
+      <c r="C188" s="37" t="n">
         <v>46343</v>
       </c>
-      <c r="D188" s="67" t="n">
+      <c r="D188" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E188" s="20" t="s">
@@ -6925,13 +7000,13 @@
       <c r="A189" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="B189" s="67" t="n">
+      <c r="B189" s="37" t="n">
         <v>24773</v>
       </c>
-      <c r="C189" s="67" t="n">
+      <c r="C189" s="37" t="n">
         <v>25111</v>
       </c>
-      <c r="D189" s="67" t="n">
+      <c r="D189" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E189" s="20" t="s">
@@ -6945,13 +7020,13 @@
       <c r="A190" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B190" s="67" t="n">
+      <c r="B190" s="37" t="n">
         <v>36173</v>
       </c>
-      <c r="C190" s="67" t="n">
+      <c r="C190" s="37" t="n">
         <v>36546</v>
       </c>
-      <c r="D190" s="67" t="n">
+      <c r="D190" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E190" s="20" t="s">
@@ -6965,13 +7040,13 @@
       <c r="A191" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="B191" s="74" t="n">
+      <c r="B191" s="73" t="n">
         <v>66445</v>
       </c>
-      <c r="C191" s="74" t="n">
+      <c r="C191" s="73" t="n">
         <v>66445</v>
       </c>
-      <c r="D191" s="67" t="n">
+      <c r="D191" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E191" s="20" t="s">
@@ -6985,13 +7060,13 @@
       <c r="A192" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="B192" s="67" t="n">
-        <v>60945</v>
-      </c>
-      <c r="C192" s="67" t="n">
-        <v>61833</v>
-      </c>
-      <c r="D192" s="67" t="n">
+      <c r="B192" s="25" t="n">
+        <v>76705</v>
+      </c>
+      <c r="C192" s="25" t="n">
+        <v>77913</v>
+      </c>
+      <c r="D192" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E192" s="20" t="s">
@@ -7005,11 +7080,11 @@
       <c r="A193" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="B193" s="25" t="n">
-        <v>76705</v>
-      </c>
-      <c r="C193" s="25" t="n">
-        <v>77913</v>
+      <c r="B193" s="37" t="n">
+        <v>60945</v>
+      </c>
+      <c r="C193" s="37" t="n">
+        <v>61833</v>
       </c>
       <c r="D193" s="25" t="n">
         <v>1</v>
@@ -7025,13 +7100,13 @@
       <c r="A194" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="B194" s="67" t="n">
+      <c r="B194" s="37" t="n">
         <v>46237</v>
       </c>
-      <c r="C194" s="67" t="n">
+      <c r="C194" s="37" t="n">
         <v>47733</v>
       </c>
-      <c r="D194" s="67" t="n">
+      <c r="D194" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E194" s="20" t="s">
@@ -7045,13 +7120,13 @@
       <c r="A195" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="B195" s="67" t="n">
+      <c r="B195" s="37" t="n">
         <v>56994</v>
       </c>
-      <c r="C195" s="67" t="n">
+      <c r="C195" s="37" t="n">
         <v>57578</v>
       </c>
-      <c r="D195" s="67" t="n">
+      <c r="D195" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E195" s="20" t="s">
@@ -7065,13 +7140,13 @@
       <c r="A196" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="B196" s="67" t="n">
+      <c r="B196" s="37" t="n">
         <v>180061</v>
       </c>
-      <c r="C196" s="67" t="n">
+      <c r="C196" s="37" t="n">
         <v>180914</v>
       </c>
-      <c r="D196" s="67" t="n">
+      <c r="D196" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E196" s="20" t="s">
@@ -7182,14 +7257,14 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="71" t="s">
+      <c r="A202" s="70" t="s">
         <v>496</v>
       </c>
       <c r="B202" s="25" t="n">
-        <v>27245</v>
+        <v>36408</v>
       </c>
       <c r="C202" s="25" t="n">
-        <v>29028</v>
+        <v>37965</v>
       </c>
       <c r="D202" s="26" t="n">
         <v>1</v>
@@ -7205,14 +7280,14 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="71" t="s">
+      <c r="A203" s="70" t="s">
         <v>496</v>
       </c>
       <c r="B203" s="25" t="n">
-        <v>36408</v>
+        <v>27245</v>
       </c>
       <c r="C203" s="25" t="n">
-        <v>37965</v>
+        <v>29028</v>
       </c>
       <c r="D203" s="26" t="n">
         <v>1</v>
@@ -7267,46 +7342,47 @@
         <v>505</v>
       </c>
     </row>
+    <row r="206" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B206" s="25" t="n">
+        <v>44725</v>
+      </c>
+      <c r="C206" s="25" t="n">
+        <v>47195</v>
+      </c>
+      <c r="D206" s="74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" s="20" t="n">
+        <v>3275</v>
+      </c>
+      <c r="F206" s="17" t="s">
+        <v>507</v>
+      </c>
+    </row>
     <row r="207" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="75" t="s">
-        <v>506</v>
+      <c r="A207" s="24" t="s">
+        <v>508</v>
       </c>
       <c r="B207" s="25" t="n">
-        <v>44725</v>
+        <v>188294</v>
       </c>
       <c r="C207" s="25" t="n">
-        <v>47195</v>
-      </c>
-      <c r="D207" s="76" t="n">
+        <v>189525</v>
+      </c>
+      <c r="D207" s="26" t="n">
         <v>1</v>
       </c>
       <c r="E207" s="20" t="n">
-        <v>3275</v>
+        <v>3868</v>
       </c>
       <c r="F207" s="17" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="75" t="s">
-        <v>508</v>
-      </c>
-      <c r="B208" s="25" t="n">
-        <v>188294</v>
-      </c>
-      <c r="C208" s="25" t="n">
-        <v>189525</v>
-      </c>
-      <c r="D208" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" s="20" t="n">
-        <v>3868</v>
-      </c>
-      <c r="F208" s="17" t="s">
         <v>509</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7316,4 +7392,534 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="39.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="75" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77" t="s">
+        <v>513</v>
+      </c>
+      <c r="F1" s="77"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+    </row>
+    <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>514</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="78" t="n">
+        <v>76705</v>
+      </c>
+      <c r="D3" s="78" t="n">
+        <v>77913</v>
+      </c>
+      <c r="E3" s="79" t="n">
+        <v>60945</v>
+      </c>
+      <c r="F3" s="79" t="n">
+        <v>61833</v>
+      </c>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="80" t="n">
+        <v>60945</v>
+      </c>
+      <c r="D4" s="80" t="n">
+        <v>61833</v>
+      </c>
+      <c r="E4" s="81" t="n">
+        <v>76705</v>
+      </c>
+      <c r="F4" s="81" t="n">
+        <v>77913</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="78" t="n">
+        <v>36408</v>
+      </c>
+      <c r="D6" s="78" t="n">
+        <v>37965</v>
+      </c>
+      <c r="E6" s="81" t="n">
+        <v>27245</v>
+      </c>
+      <c r="F6" s="81" t="n">
+        <v>29028</v>
+      </c>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+    </row>
+    <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="78" t="n">
+        <v>27245</v>
+      </c>
+      <c r="D7" s="78" t="n">
+        <v>29028</v>
+      </c>
+      <c r="E7" s="81" t="n">
+        <v>36408</v>
+      </c>
+      <c r="F7" s="81" t="n">
+        <v>37965</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+    </row>
+    <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+    </row>
+    <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="62" t="n">
+        <v>3855</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="86" t="n">
+        <v>51110</v>
+      </c>
+      <c r="D9" s="86" t="n">
+        <v>51435</v>
+      </c>
+      <c r="E9" s="87" t="n">
+        <v>119850</v>
+      </c>
+      <c r="F9" s="87" t="n">
+        <v>122957</v>
+      </c>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+    </row>
+    <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="86" t="n">
+        <v>119850</v>
+      </c>
+      <c r="D10" s="86" t="n">
+        <v>122957</v>
+      </c>
+      <c r="E10" s="87" t="n">
+        <v>51110</v>
+      </c>
+      <c r="F10" s="87" t="n">
+        <v>51435</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+    </row>
+    <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+    </row>
+    <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+    </row>
+    <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+    </row>
+    <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+    </row>
+    <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+    </row>
+    <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+    </row>
+    <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+    </row>
+    <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+    </row>
+    <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+    </row>
+    <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+    </row>
+    <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+    </row>
+    <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+    </row>
+    <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+    </row>
+    <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+    </row>
+    <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+    </row>
+    <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+    </row>
+    <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+    </row>
+    <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+    </row>
+    <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+    </row>
+    <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+    </row>
+    <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>